--- a/Running projects/BAF Head Office/001 Quotation for VFD.xlsx
+++ b/Running projects/BAF Head Office/001 Quotation for VFD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C60813-6020-4FB0-9427-CC6C51E0429A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3522C4C-2505-4C9F-A5E5-34E20F386DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,8 +11,8 @@
     <sheet name="HVAC" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$44</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$20:$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$43</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$19:$19</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -81,21 +81,23 @@
     <t>Supply and installation of VFD For Bank Al-Falah Head Office Karachi.</t>
   </si>
   <si>
+    <t>OPTION 1</t>
+  </si>
+  <si>
+    <t>Labour Amount</t>
+  </si>
+  <si>
+    <t>OPTION 2</t>
+  </si>
+  <si>
+    <t>Material Amount</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
     <t>Supply &amp; Installation of VFD
-ATV 212 HO75 N4-7.5 KW IP21</t>
-  </si>
-  <si>
-    <t>OPTION 1</t>
-  </si>
-  <si>
-    <t>Labour Amount</t>
-  </si>
-  <si>
-    <t>Supply &amp; Installation of VFD
-ATV 212 HD22 N4-22 KW IP21</t>
-  </si>
-  <si>
-    <t>OPTION 2</t>
+ATV 212 HO75 N4-7.5 KW IP21 (SCHNIDER)</t>
   </si>
   <si>
     <r>
@@ -112,14 +114,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Unpacked)</t>
+      <t>(Unpacked) (SCHNIDER)</t>
     </r>
   </si>
   <si>
-    <t>Material Amount</t>
-  </si>
-  <si>
-    <t>001</t>
+    <t>Supply &amp; Installation of VFD
+ATV 212 HD22 N4-22 KW IP21 (SCHNIDER)</t>
   </si>
 </sst>
 </file>
@@ -828,6 +828,39 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,39 +890,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -915,13 +915,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>58740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>505208</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>146052</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -965,14 +965,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>822321</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>72015</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>135515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>790571</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>182563</xdr:rowOff>
+      <xdr:rowOff>7938</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -989,8 +989,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1108071" y="310140"/>
-          <a:ext cx="4508500" cy="586798"/>
+          <a:off x="1108071" y="135515"/>
+          <a:ext cx="4445000" cy="586798"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1069,13 +1069,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>246064</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>182563</xdr:rowOff>
+      <xdr:rowOff>7938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>869948</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>217846</xdr:rowOff>
+      <xdr:rowOff>43221</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1099,7 +1099,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="246064" y="182563"/>
+          <a:off x="246064" y="7938"/>
           <a:ext cx="909634" cy="749658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1406,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:R46"/>
+  <dimension ref="A4:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1435,604 +1435,603 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
+    <row r="5" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
       <c r="F6" s="32"/>
       <c r="G6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="24"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H6" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A8" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+    </row>
+    <row r="9" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="76"/>
+      <c r="B9" s="76"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="G10" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="77"/>
+    </row>
+    <row r="11" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+    </row>
+    <row r="13" spans="1:8" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+    </row>
+    <row r="16" spans="1:8" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+    </row>
+    <row r="18" spans="1:10" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="53">
+        <v>1</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="39">
+        <v>1</v>
+      </c>
+      <c r="E20" s="40">
+        <v>350000</v>
+      </c>
+      <c r="F20" s="40">
+        <v>8000</v>
+      </c>
+      <c r="G20" s="40">
+        <f>E20*D20</f>
+        <v>350000</v>
+      </c>
+      <c r="H20" s="41">
+        <f>F20*D20</f>
+        <v>8000</v>
+      </c>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="54">
+        <v>2</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1</v>
+      </c>
+      <c r="E21" s="19">
+        <v>450000</v>
+      </c>
+      <c r="F21" s="19">
+        <v>10000</v>
+      </c>
+      <c r="G21" s="19">
+        <f>E21*D21</f>
+        <v>450000</v>
+      </c>
+      <c r="H21" s="42">
+        <f>F21*D21</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="47"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="48">
+        <f>SUM(G20:G22)</f>
+        <v>800000</v>
+      </c>
+      <c r="H23" s="49">
+        <f>SUM(H20:H22)</f>
+        <v>18000</v>
+      </c>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="21">
+        <v>0</v>
+      </c>
+      <c r="H24" s="50">
+        <f>H23*13%</f>
+        <v>2340</v>
+      </c>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="51">
+        <f>G24+G23</f>
+        <v>800000</v>
+      </c>
+      <c r="H25" s="52">
+        <f>H24+H23</f>
+        <v>20340</v>
+      </c>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="56">
+        <f>H25+G25</f>
+        <v>820340</v>
+      </c>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="1:10" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+    </row>
+    <row r="30" spans="1:10" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="53">
+        <v>1</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="39">
+        <v>1</v>
+      </c>
+      <c r="E32" s="40">
+        <v>350000</v>
+      </c>
+      <c r="F32" s="40">
+        <v>8000</v>
+      </c>
+      <c r="G32" s="40">
+        <f>E32*D32</f>
+        <v>350000</v>
+      </c>
+      <c r="H32" s="41">
+        <f>F32*D32</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="57">
+        <v>2</v>
+      </c>
+      <c r="B33" s="58" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="29"/>
-    </row>
-    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-    </row>
-    <row r="10" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="G11" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="66"/>
-    </row>
-    <row r="12" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-    </row>
-    <row r="14" spans="1:8" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-    </row>
-    <row r="17" spans="1:10" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-    </row>
-    <row r="19" spans="1:10" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="34" t="s">
+      <c r="C33" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="59">
+        <v>1</v>
+      </c>
+      <c r="E33" s="60">
+        <v>980000</v>
+      </c>
+      <c r="F33" s="60">
+        <v>15000</v>
+      </c>
+      <c r="G33" s="60">
+        <f>E33*D33</f>
+        <v>980000</v>
+      </c>
+      <c r="H33" s="61">
+        <f>F33*D33</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="47"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="48">
+        <f>SUM(G32:G34)</f>
+        <v>1330000</v>
+      </c>
+      <c r="H35" s="49">
+        <f>SUM(H32:H34)</f>
+        <v>23000</v>
+      </c>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="21">
         <v>0</v>
       </c>
-      <c r="B20" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="53">
-        <v>1</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="39">
-        <v>1</v>
-      </c>
-      <c r="E21" s="40">
-        <v>350000</v>
-      </c>
-      <c r="F21" s="40">
-        <v>8000</v>
-      </c>
-      <c r="G21" s="40">
-        <f>E21*D21</f>
-        <v>350000</v>
-      </c>
-      <c r="H21" s="41">
-        <f>F21*D21</f>
-        <v>8000</v>
-      </c>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54">
-        <v>2</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="18">
-        <v>1</v>
-      </c>
-      <c r="E22" s="19">
-        <v>450000</v>
-      </c>
-      <c r="F22" s="19">
-        <v>10000</v>
-      </c>
-      <c r="G22" s="19">
-        <f>E22*D22</f>
-        <v>450000</v>
-      </c>
-      <c r="H22" s="42">
-        <f>F22*D22</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="48">
-        <f>SUM(G21:G23)</f>
-        <v>800000</v>
-      </c>
-      <c r="H24" s="49">
-        <f>SUM(H21:H23)</f>
-        <v>18000</v>
-      </c>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="21">
-        <v>0</v>
-      </c>
-      <c r="H25" s="50">
-        <f>H24*13%</f>
-        <v>2340</v>
-      </c>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="76" t="s">
+      <c r="H36" s="50">
+        <f>H35*13%</f>
+        <v>2990</v>
+      </c>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="51">
-        <f>G25+G24</f>
-        <v>800000</v>
-      </c>
-      <c r="H26" s="52">
-        <f>H25+H24</f>
-        <v>20340</v>
-      </c>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="79" t="s">
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="51">
+        <f>G36+G35</f>
+        <v>1330000</v>
+      </c>
+      <c r="H37" s="52">
+        <f>H36+H35</f>
+        <v>25990</v>
+      </c>
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="56">
-        <f>H26+G26</f>
-        <v>820340</v>
-      </c>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="J28" s="15"/>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="J29" s="15"/>
-    </row>
-    <row r="30" spans="1:10" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-    </row>
-    <row r="31" spans="1:10" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="53">
-        <v>1</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="39">
-        <v>1</v>
-      </c>
-      <c r="E33" s="40">
-        <v>350000</v>
-      </c>
-      <c r="F33" s="40">
-        <v>8000</v>
-      </c>
-      <c r="G33" s="40">
-        <f>E33*D33</f>
-        <v>350000</v>
-      </c>
-      <c r="H33" s="41">
-        <f>F33*D33</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.3">
-      <c r="A34" s="57">
-        <v>2</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="59">
-        <v>1</v>
-      </c>
-      <c r="E34" s="60">
-        <v>980000</v>
-      </c>
-      <c r="F34" s="60">
-        <v>15000</v>
-      </c>
-      <c r="G34" s="60">
-        <f>E34*D34</f>
-        <v>980000</v>
-      </c>
-      <c r="H34" s="61">
-        <f>F34*D34</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="47"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="48">
-        <f>SUM(G33:G35)</f>
-        <v>1330000</v>
-      </c>
-      <c r="H36" s="49">
-        <f>SUM(H33:H35)</f>
-        <v>23000</v>
-      </c>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="74"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="21">
-        <v>0</v>
-      </c>
-      <c r="H37" s="50">
-        <f>H36*13%</f>
-        <v>2990</v>
-      </c>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="51">
-        <f>G37+G36</f>
-        <v>1330000</v>
-      </c>
-      <c r="H38" s="52">
-        <f>H37+H36</f>
-        <v>25990</v>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="56">
+        <f>H37+G37</f>
+        <v>1355990</v>
       </c>
       <c r="I38" s="14"/>
     </row>
-    <row r="39" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="56">
-        <f>H38+G38</f>
-        <v>1355990</v>
-      </c>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="J40" s="15"/>
-    </row>
-    <row r="41" spans="1:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="64" t="s">
+    <row r="39" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="J39" s="15"/>
+    </row>
+    <row r="40" spans="1:18" ht="21" x14ac:dyDescent="0.3">
+      <c r="A40" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="64"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="14"/>
+      <c r="B40" s="75"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="14"/>
+      <c r="M40" s="2"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F41" s="8"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="9"/>
       <c r="M41" s="2"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F42" s="8"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="9"/>
+    </row>
+    <row r="42" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="14"/>
       <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="14"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="M43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" s="14"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M44" s="2"/>
       <c r="O44" s="14"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O45" s="14"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="O46" s="14"/>
-    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A15:H16"/>
-    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A14:H15"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A17:H17"/>
     <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A35:F35"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="44" max="7" man="1"/>
+    <brk id="43" max="7" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Running projects/BAF Head Office/001 Quotation for VFD.xlsx
+++ b/Running projects/BAF Head Office/001 Quotation for VFD.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3522C4C-2505-4C9F-A5E5-34E20F386DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AF5A15-F3CC-4DBF-94DD-DF2A20F70BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,15 +11,15 @@
     <sheet name="HVAC" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$43</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$19:$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$46</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$21:$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>S. #</t>
   </si>
@@ -120,6 +120,13 @@
   <si>
     <t>Supply &amp; Installation of VFD
 ATV 212 HD22 N4-22 KW IP21 (SCHNIDER)</t>
+  </si>
+  <si>
+    <t>Supply &amp; Installation of VFD
+ATV 212 HO75 N4-5.5 KW IP21 (SCHNIDER)</t>
+  </si>
+  <si>
+    <t>Warranty 01 Year.</t>
   </si>
 </sst>
 </file>
@@ -271,7 +278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -651,6 +658,15 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -658,7 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -828,67 +844,73 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -915,13 +937,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>58740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>505208</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>146052</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1406,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:R45"/>
+  <dimension ref="A4:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1435,603 +1457,619 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="31" t="s">
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H7" s="62" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="24"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="31" t="s">
+    <row r="8" spans="1:8" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="24"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H8" s="30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="29"/>
-    </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
+    <row r="9" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A10" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-    </row>
-    <row r="9" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
-      <c r="B9" s="76"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="G10" s="77" t="s">
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+    </row>
+    <row r="11" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="G12" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="77"/>
-    </row>
-    <row r="11" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
+      <c r="H12" s="66"/>
+    </row>
+    <row r="13" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-    </row>
-    <row r="13" spans="1:8" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="79" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+    </row>
+    <row r="15" spans="1:8" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-    </row>
-    <row r="16" spans="1:8" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-    </row>
-    <row r="18" spans="1:10" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34" t="s">
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+    </row>
+    <row r="20" spans="1:10" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B21" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C21" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D21" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E21" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F21" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G21" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H21" s="37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53">
+    <row r="22" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="53">
         <v>1</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B22" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="39">
+        <v>1</v>
+      </c>
+      <c r="E22" s="40">
+        <v>350000</v>
+      </c>
+      <c r="F22" s="40">
+        <v>8000</v>
+      </c>
+      <c r="G22" s="40">
+        <f>E22*D22</f>
+        <v>350000</v>
+      </c>
+      <c r="H22" s="41">
+        <f>F22*D22</f>
+        <v>8000</v>
+      </c>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="54">
+        <v>2</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1</v>
+      </c>
+      <c r="E23" s="19">
+        <v>450000</v>
+      </c>
+      <c r="F23" s="19">
+        <v>10000</v>
+      </c>
+      <c r="G23" s="19">
+        <f>E23*D23</f>
+        <v>450000</v>
+      </c>
+      <c r="H23" s="42">
+        <f>F23*D23</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="47"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="48">
+        <f>SUM(G22:G24)</f>
+        <v>800000</v>
+      </c>
+      <c r="H25" s="49">
+        <f>SUM(H22:H24)</f>
+        <v>18000</v>
+      </c>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="21">
+        <v>0</v>
+      </c>
+      <c r="H26" s="50">
+        <f>H25*13%</f>
+        <v>2340</v>
+      </c>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="51">
+        <f>G26+G25</f>
+        <v>800000</v>
+      </c>
+      <c r="H27" s="52">
+        <f>H26+H25</f>
+        <v>20340</v>
+      </c>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="56">
+        <f>H27+G27</f>
+        <v>820340</v>
+      </c>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="1:10" ht="10.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="1:10" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+    </row>
+    <row r="32" spans="1:10" ht="9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:18" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="53">
+        <v>1</v>
+      </c>
+      <c r="B34" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C34" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D34" s="39">
         <v>1</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E34" s="40">
         <v>350000</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F34" s="40">
         <v>8000</v>
       </c>
-      <c r="G20" s="40">
-        <f>E20*D20</f>
+      <c r="G34" s="40">
+        <f>E34*D34</f>
         <v>350000</v>
       </c>
-      <c r="H20" s="41">
-        <f>F20*D20</f>
+      <c r="H34" s="41">
+        <f>F34*D34</f>
         <v>8000</v>
       </c>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54">
+    </row>
+    <row r="35" spans="1:18" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="57">
         <v>2</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="18" t="s">
+      <c r="B35" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D35" s="59">
         <v>1</v>
       </c>
-      <c r="E21" s="19">
-        <v>450000</v>
-      </c>
-      <c r="F21" s="19">
-        <v>10000</v>
-      </c>
-      <c r="G21" s="19">
-        <f>E21*D21</f>
-        <v>450000</v>
-      </c>
-      <c r="H21" s="42">
-        <f>F21*D21</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="47"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="80" t="s">
+      <c r="E35" s="60">
+        <v>980000</v>
+      </c>
+      <c r="F35" s="60">
+        <v>15000</v>
+      </c>
+      <c r="G35" s="60">
+        <f>E35*D35</f>
+        <v>980000</v>
+      </c>
+      <c r="H35" s="61">
+        <f>F35*D35</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="43"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="47"/>
+    </row>
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="48">
-        <f>SUM(G20:G22)</f>
-        <v>800000</v>
-      </c>
-      <c r="H23" s="49">
-        <f>SUM(H20:H22)</f>
-        <v>18000</v>
-      </c>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="65" t="s">
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="48">
+        <f>SUM(G34:G36)</f>
+        <v>1330000</v>
+      </c>
+      <c r="H37" s="49">
+        <f>SUM(H34:H36)</f>
+        <v>23000</v>
+      </c>
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="21">
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="21">
         <v>0</v>
       </c>
-      <c r="H24" s="50">
-        <f>H23*13%</f>
-        <v>2340</v>
-      </c>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="68" t="s">
+      <c r="H38" s="50">
+        <f>H37*13%</f>
+        <v>2990</v>
+      </c>
+      <c r="I38" s="14"/>
+    </row>
+    <row r="39" spans="1:18" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="51">
-        <f>G24+G23</f>
-        <v>800000</v>
-      </c>
-      <c r="H25" s="52">
-        <f>H24+H23</f>
-        <v>20340</v>
-      </c>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71" t="s">
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="51">
+        <f>G38+G37</f>
+        <v>1330000</v>
+      </c>
+      <c r="H39" s="52">
+        <f>H38+H37</f>
+        <v>25990</v>
+      </c>
+      <c r="I39" s="14"/>
+    </row>
+    <row r="40" spans="1:18" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="56">
-        <f>H25+G25</f>
-        <v>820340</v>
-      </c>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="J27" s="15"/>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="J28" s="15"/>
-    </row>
-    <row r="29" spans="1:10" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-    </row>
-    <row r="30" spans="1:10" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="53">
-        <v>1</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="39">
-        <v>1</v>
-      </c>
-      <c r="E32" s="40">
-        <v>350000</v>
-      </c>
-      <c r="F32" s="40">
-        <v>8000</v>
-      </c>
-      <c r="G32" s="40">
-        <f>E32*D32</f>
-        <v>350000</v>
-      </c>
-      <c r="H32" s="41">
-        <f>F32*D32</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="57">
-        <v>2</v>
-      </c>
-      <c r="B33" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="59">
-        <v>1</v>
-      </c>
-      <c r="E33" s="60">
-        <v>980000</v>
-      </c>
-      <c r="F33" s="60">
-        <v>15000</v>
-      </c>
-      <c r="G33" s="60">
-        <f>E33*D33</f>
-        <v>980000</v>
-      </c>
-      <c r="H33" s="61">
-        <f>F33*D33</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="47"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="48">
-        <f>SUM(G32:G34)</f>
-        <v>1330000</v>
-      </c>
-      <c r="H35" s="49">
-        <f>SUM(H32:H34)</f>
-        <v>23000</v>
-      </c>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="21">
-        <v>0</v>
-      </c>
-      <c r="H36" s="50">
-        <f>H35*13%</f>
-        <v>2990</v>
-      </c>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="51">
-        <f>G36+G35</f>
-        <v>1330000</v>
-      </c>
-      <c r="H37" s="52">
-        <f>H36+H35</f>
-        <v>25990</v>
-      </c>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="56">
-        <f>H37+G37</f>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="56">
+        <f>H39+G39</f>
         <v>1355990</v>
       </c>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="J39" s="15"/>
-    </row>
-    <row r="40" spans="1:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="A40" s="75" t="s">
+      <c r="I40" s="14"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="14"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="J42" s="15"/>
+    </row>
+    <row r="43" spans="1:18" ht="21" x14ac:dyDescent="0.3">
+      <c r="A43" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="75"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="14"/>
-      <c r="M40" s="2"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F41" s="8"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="9"/>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="14"/>
-      <c r="M42" s="2"/>
-      <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B43" s="64"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="14"/>
       <c r="M43" s="2"/>
-      <c r="O43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="O44" s="14"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="O45" s="14"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="9"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="14"/>
+      <c r="M45" s="2"/>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M46" s="2"/>
+      <c r="O46" s="14"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O47" s="14"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O48" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A14:H15"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
+  <mergeCells count="20">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A16:H17"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A31:H31"/>
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="43" max="7" man="1"/>
+    <brk id="46" max="7" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
